--- a/Team-Data/2013-14/1-29-2013-14.xlsx
+++ b/Team-Data/2013-14/1-29-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>8</v>
@@ -762,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -774,22 +841,22 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ2" t="n">
         <v>5</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>0.313</v>
+        <v>0.319</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J3" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M3" t="n">
         <v>19.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.326</v>
+        <v>0.325</v>
       </c>
       <c r="O3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P3" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
         <v>0.767</v>
       </c>
       <c r="R3" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S3" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.6</v>
       </c>
       <c r="U3" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.6</v>
@@ -908,7 +975,7 @@
         <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
@@ -917,13 +984,13 @@
         <v>21.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB3" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -935,7 +1002,7 @@
         <v>28</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
@@ -944,7 +1011,7 @@
         <v>24</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK3" t="n">
         <v>26</v>
@@ -959,43 +1026,43 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
         <v>25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT3" t="n">
         <v>21</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>17</v>
       </c>
       <c r="AU3" t="n">
         <v>29</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>24</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BB3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
@@ -1138,13 +1205,13 @@
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
         <v>13</v>
@@ -1165,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.426</v>
+        <v>0.413</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1245,28 +1312,28 @@
         <v>0.349</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
         <v>0.73</v>
       </c>
       <c r="R5" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T5" t="n">
-        <v>41.9</v>
+        <v>41.6</v>
       </c>
       <c r="U5" t="n">
         <v>20.3</v>
       </c>
       <c r="V5" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W5" t="n">
         <v>6.2</v>
@@ -1275,31 +1342,31 @@
         <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.1</v>
+        <v>-3.2</v>
       </c>
       <c r="AD5" t="n">
         <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>14</v>
@@ -1308,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1326,22 +1393,22 @@
         <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ5" t="n">
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
         <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
         <v>2</v>
@@ -1353,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -1394,34 +1461,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
         <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>48.9</v>
       </c>
       <c r="I6" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
         <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="N6" t="n">
         <v>0.342</v>
@@ -1439,49 +1506,49 @@
         <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U6" t="n">
         <v>22.4</v>
       </c>
       <c r="V6" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
         <v>92.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
@@ -1490,13 +1557,13 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>27</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
@@ -1526,10 +1593,10 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1666,10 +1733,10 @@
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1687,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1708,16 +1775,16 @@
         <v>28</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ7" t="n">
         <v>8</v>
@@ -1726,7 +1793,7 @@
         <v>21</v>
       </c>
       <c r="BB7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.553</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,37 +1843,37 @@
         <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.472</v>
       </c>
       <c r="L8" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
         <v>22.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="P8" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.797</v>
+        <v>0.795</v>
       </c>
       <c r="R8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S8" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T8" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U8" t="n">
         <v>23.4</v>
@@ -1815,7 +1882,7 @@
         <v>13.9</v>
       </c>
       <c r="W8" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>4.2</v>
@@ -1824,13 +1891,13 @@
         <v>3.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.1</v>
+        <v>103.9</v>
       </c>
       <c r="AC8" t="n">
         <v>1.4</v>
@@ -1839,16 +1906,16 @@
         <v>4</v>
       </c>
       <c r="AE8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF8" t="n">
         <v>10</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1857,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1866,13 +1933,13 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1890,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1905,10 +1972,10 @@
         <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1958,43 +2025,43 @@
         <v>38.3</v>
       </c>
       <c r="J9" t="n">
-        <v>85</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L9" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P9" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="R9" t="n">
         <v>12</v>
       </c>
       <c r="S9" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V9" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
@@ -2003,46 +2070,46 @@
         <v>5.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG9" t="n">
         <v>14</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>16</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2051,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP9" t="n">
         <v>4</v>
@@ -2060,10 +2127,10 @@
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
@@ -2072,16 +2139,16 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ9" t="n">
         <v>29</v>
@@ -2090,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC9" t="n">
         <v>14</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>28</v>
@@ -2236,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2245,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2406,16 +2473,16 @@
         <v>7</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2430,10 +2497,10 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>29</v>
@@ -2442,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>14</v>
@@ -2451,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -2486,79 +2553,79 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
         <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.646</v>
+        <v>0.638</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J12" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.471</v>
+        <v>0.469</v>
       </c>
       <c r="L12" t="n">
         <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O12" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="P12" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T12" t="n">
         <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y12" t="n">
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>105</v>
+        <v>104.8</v>
       </c>
       <c r="AC12" t="n">
         <v>3.4</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2615,7 +2682,7 @@
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2627,10 +2694,10 @@
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2776,10 +2843,10 @@
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2803,7 +2870,7 @@
         <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>5</v>
@@ -2812,13 +2879,13 @@
         <v>10</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.681</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,43 +2935,43 @@
         <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.469</v>
       </c>
       <c r="L14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M14" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="N14" t="n">
         <v>0.348</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="P14" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="R14" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
         <v>42.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
@@ -2916,22 +2983,22 @@
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2946,19 +3013,19 @@
         <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2967,13 +3034,13 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
         <v>17</v>
@@ -2982,25 +3049,25 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
         <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>-5.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
@@ -3131,7 +3198,7 @@
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
         <v>16</v>
@@ -3149,13 +3216,13 @@
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
         <v>20</v>
@@ -3164,25 +3231,25 @@
         <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
         <v>25</v>
       </c>
       <c r="BB15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
         <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0.545</v>
+        <v>0.535</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J16" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L16" t="n">
         <v>5.1</v>
@@ -3244,55 +3311,55 @@
         <v>14.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O16" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R16" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S16" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T16" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U16" t="n">
         <v>21.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W16" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X16" t="n">
         <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3310,10 +3377,10 @@
         <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3328,40 +3395,40 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS16" t="n">
         <v>21</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>15</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.711</v>
+        <v>0.727</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3414,28 +3481,28 @@
         <v>39.1</v>
       </c>
       <c r="J17" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="K17" t="n">
         <v>0.509</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M17" t="n">
         <v>21.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.37</v>
+        <v>0.374</v>
       </c>
       <c r="O17" t="n">
         <v>18</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
         <v>7.2</v>
@@ -3450,46 +3517,46 @@
         <v>23.6</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W17" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
         <v>3</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.1</v>
+        <v>104.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3507,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
         <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.178</v>
+        <v>0.182</v>
       </c>
       <c r="H18" t="n">
         <v>48.8</v>
@@ -3596,7 +3663,7 @@
         <v>34.8</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
         <v>0.421</v>
@@ -3608,34 +3675,34 @@
         <v>20.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O18" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="P18" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.756</v>
+        <v>0.748</v>
       </c>
       <c r="R18" t="n">
         <v>11.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
         <v>20.9</v>
       </c>
       <c r="V18" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X18" t="n">
         <v>5.6</v>
@@ -3644,19 +3711,19 @@
         <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>91.7</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>-9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -3689,16 +3756,16 @@
         <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3710,13 +3777,13 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3725,7 +3792,7 @@
         <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
         <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J19" t="n">
-        <v>88.59999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O19" t="n">
         <v>21.1</v>
@@ -3799,16 +3866,16 @@
         <v>26.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.783</v>
+        <v>0.785</v>
       </c>
       <c r="R19" t="n">
         <v>13.1</v>
       </c>
       <c r="S19" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T19" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U19" t="n">
         <v>23.6</v>
@@ -3817,7 +3884,7 @@
         <v>13.8</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X19" t="n">
         <v>3.4</v>
@@ -3826,34 +3893,34 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.1</v>
+        <v>106.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3868,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
         <v>2</v>
@@ -3889,13 +3956,13 @@
         <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
         <v>5</v>
       </c>
       <c r="AW19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3910,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -3942,37 +4009,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.422</v>
+        <v>0.432</v>
       </c>
       <c r="H20" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M20" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.377</v>
+        <v>0.386</v>
       </c>
       <c r="O20" t="n">
         <v>17.8</v>
@@ -3981,31 +4048,31 @@
         <v>23.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R20" t="n">
         <v>12.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V20" t="n">
         <v>13.9</v>
       </c>
       <c r="W20" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
         <v>6.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
         <v>22.5</v>
@@ -4014,34 +4081,34 @@
         <v>20.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.2</v>
+        <v>100.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>26</v>
@@ -4050,31 +4117,31 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
       </c>
       <c r="AP20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
         <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>9</v>
@@ -4083,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>28</v>
@@ -4092,7 +4159,7 @@
         <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4214,7 +4281,7 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4229,16 +4296,16 @@
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN21" t="n">
         <v>13</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ21" t="n">
         <v>14</v>
@@ -4247,7 +4314,7 @@
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
@@ -4262,7 +4329,7 @@
         <v>12</v>
       </c>
       <c r="AX21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.787</v>
+        <v>0.783</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4324,37 +4391,37 @@
         <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.361</v>
+        <v>0.354</v>
       </c>
       <c r="O22" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="P22" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.803</v>
+        <v>0.804</v>
       </c>
       <c r="R22" t="n">
         <v>11.2</v>
       </c>
       <c r="S22" t="n">
-        <v>34.6</v>
+        <v>34.9</v>
       </c>
       <c r="T22" t="n">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="U22" t="n">
         <v>21.5</v>
@@ -4363,25 +4430,25 @@
         <v>15.6</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
         <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.6</v>
+        <v>105.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
         <v>4</v>
@@ -4399,28 +4466,28 @@
         <v>25</v>
       </c>
       <c r="AI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
         <v>4</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>3</v>
-      </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM22" t="n">
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
         <v>4</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4432,13 +4499,13 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>16</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
         <v>11</v>
@@ -4459,7 +4526,7 @@
         <v>4</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>0.255</v>
+        <v>0.261</v>
       </c>
       <c r="H23" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I23" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.44</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M23" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N23" t="n">
         <v>0.345</v>
       </c>
       <c r="O23" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P23" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R23" t="n">
         <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W23" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
         <v>4.1</v>
@@ -4554,16 +4621,16 @@
         <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.1</v>
+        <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
         <v>4</v>
@@ -4581,34 +4648,34 @@
         <v>6</v>
       </c>
       <c r="AI23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>23</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>22</v>
-      </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
         <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
         <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
@@ -4617,13 +4684,13 @@
         <v>22</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>28</v>
@@ -4638,7 +4705,7 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4737,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
         <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>0.326</v>
+        <v>0.311</v>
       </c>
       <c r="H24" t="n">
         <v>48.8</v>
       </c>
       <c r="I24" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J24" t="n">
         <v>88.5</v>
@@ -4703,31 +4770,31 @@
         <v>0.317</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
         <v>23.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.711</v>
+        <v>0.715</v>
       </c>
       <c r="R24" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S24" t="n">
         <v>32.8</v>
       </c>
       <c r="T24" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U24" t="n">
         <v>22.6</v>
       </c>
       <c r="V24" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X24" t="n">
         <v>4.2</v>
@@ -4736,28 +4803,28 @@
         <v>7.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA24" t="n">
         <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF24" t="n">
         <v>27</v>
       </c>
       <c r="AG24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
         <v>5</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4793,10 +4860,10 @@
         <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
         <v>10</v>
@@ -4805,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX24" t="n">
         <v>24</v>
@@ -4814,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" t="n">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>0.591</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L25" t="n">
         <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="O25" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
       </c>
       <c r="P25" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.757</v>
+        <v>0.752</v>
       </c>
       <c r="R25" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S25" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U25" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="V25" t="n">
         <v>15</v>
@@ -4918,22 +4985,22 @@
         <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>105</v>
+        <v>104.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4942,43 +5009,43 @@
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>8</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>11</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
         <v>30</v>
@@ -4987,7 +5054,7 @@
         <v>16</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -4996,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>11</v>
@@ -5005,7 +5072,7 @@
         <v>6</v>
       </c>
       <c r="BC25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
       </c>
       <c r="AF26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
         <v>17</v>
@@ -5130,10 +5197,10 @@
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5157,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -5216,91 +5283,91 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H27" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I27" t="n">
         <v>37.6</v>
       </c>
       <c r="J27" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O27" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P27" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R27" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="T27" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="U27" t="n">
         <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.9</v>
+        <v>102.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
@@ -5309,7 +5376,7 @@
         <v>11</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5330,13 +5397,13 @@
         <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS27" t="n">
         <v>17</v>
@@ -5351,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -5398,34 +5465,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" t="n">
         <v>33</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.717</v>
+        <v>0.733</v>
       </c>
       <c r="H28" t="n">
         <v>48.1</v>
       </c>
       <c r="I28" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="J28" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.492</v>
+        <v>0.493</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="N28" t="n">
         <v>0.402</v>
@@ -5434,49 +5501,49 @@
         <v>14.8</v>
       </c>
       <c r="P28" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.769</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U28" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
         <v>4.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>104</v>
+        <v>104.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5503,40 +5570,40 @@
         <v>12</v>
       </c>
       <c r="AM28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP28" t="n">
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5545,13 +5612,13 @@
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" t="n">
         <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>0.533</v>
+        <v>0.523</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
@@ -5598,25 +5665,25 @@
         <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.438</v>
       </c>
       <c r="L29" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O29" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P29" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q29" t="n">
         <v>0.771</v>
@@ -5625,16 +5692,16 @@
         <v>12</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T29" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="U29" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V29" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
@@ -5646,43 +5713,43 @@
         <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB29" t="n">
         <v>99.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5691,7 +5758,7 @@
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
         <v>10</v>
@@ -5700,16 +5767,16 @@
         <v>7</v>
       </c>
       <c r="AR29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT29" t="n">
         <v>13</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5718,7 +5785,7 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
         <v>13</v>
@@ -5727,7 +5794,7 @@
         <v>26</v>
       </c>
       <c r="BA29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5852,7 +5919,7 @@
         <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,19 +5937,19 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>18</v>
       </c>
-      <c r="AO30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>20</v>
-      </c>
       <c r="AR30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5891,22 +5958,22 @@
         <v>24</v>
       </c>
       <c r="AU30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" t="n">
         <v>22</v>
       </c>
       <c r="F31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" t="n">
-        <v>0.489</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J31" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K31" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.376</v>
+        <v>0.382</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="R31" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S31" t="n">
         <v>32</v>
       </c>
       <c r="T31" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U31" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="V31" t="n">
         <v>15.3</v>
@@ -6007,64 +6074,64 @@
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
       </c>
       <c r="AI31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL31" t="n">
         <v>15</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>16</v>
-      </c>
       <c r="AM31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
       </c>
       <c r="AP31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>24</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>25</v>
-      </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
         <v>15</v>
@@ -6073,16 +6140,16 @@
         <v>16</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV31" t="n">
         <v>21</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6091,10 +6158,10 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-29-2013-14</t>
+          <t>2014-01-29</t>
         </is>
       </c>
     </row>
